--- a/문서/20210123_서정우_스테이지 2 보스 클레아.xlsx
+++ b/문서/20210123_서정우_스테이지 2 보스 클레아.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\4Team_UnityProject\문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seo\Documents\GitHub\4Team_UnityProject\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DB0B39-214E-45E2-B483-ADF4A8F2DC84}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB176F-51AB-4760-9DFA-C04DF4998485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D645BB3A-1329-4EC4-B371-F0E4BFB710C2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14130" activeTab="1" xr2:uid="{D645BB3A-1329-4EC4-B371-F0E4BFB710C2}"/>
   </bookViews>
   <sheets>
     <sheet name="컨셉" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -724,17 +724,131 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -745,145 +859,49 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -895,6 +913,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -904,53 +949,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,7 +980,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>11590</xdr:colOff>
+      <xdr:colOff>179678</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
@@ -1456,122 +1456,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F08A8C-BF5F-431B-BDDF-FFB3D7EC963C}">
   <dimension ref="B1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S48" sqref="S48"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
     <col min="6" max="14" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="22"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="65" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="67"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
     </row>
     <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="68" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="70"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="71" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="74" t="s">
         <v>13</v>
       </c>
@@ -1587,8 +1587,8 @@
       <c r="N8" s="76"/>
     </row>
     <row r="9" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="77" t="s">
         <v>14</v>
       </c>
@@ -1604,372 +1604,372 @@
       <c r="N9" s="79"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="31">
+      <c r="C10" s="53"/>
+      <c r="D10" s="45">
         <v>1</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="13">
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="46">
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="13">
+      <c r="B14" s="54"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="46">
         <v>3</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44"/>
       <c r="Q15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="13">
+      <c r="B16" s="54"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="46">
         <v>4</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="12"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="12"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="13">
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="46">
         <v>5</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="12"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="61"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="31">
+      <c r="C20" s="53"/>
+      <c r="D20" s="45">
         <v>1</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="48"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="12"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="13">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="46">
         <v>2</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="12"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="12"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="13">
+      <c r="B24" s="54"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="46">
         <v>3</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="37"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="59" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="61"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="80" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="41"/>
     </row>
     <row r="28" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="81" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="44"/>
     </row>
     <row r="29" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="82" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="44"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
     </row>
     <row r="30" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="44"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1983,8 +1983,8 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="10"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1998,8 +1998,8 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="10"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2013,8 +2013,8 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="10"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2028,8 +2028,8 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="10"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2043,8 +2043,8 @@
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="47"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="10"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2058,8 +2058,8 @@
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="47"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="10"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2073,8 +2073,8 @@
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="47"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="10"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2088,8 +2088,8 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2103,8 +2103,8 @@
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="47"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="10"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2118,8 +2118,8 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
       <c r="D41" s="10"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2133,129 +2133,129 @@
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="47"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="86"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
-      <c r="M43" s="85"/>
-      <c r="N43" s="86"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="47"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="86"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="13"/>
     </row>
     <row r="45" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="47"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="86"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="86"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="13"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="47"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="84"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="86"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="13"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="47"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="84"/>
-      <c r="E48" s="85" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="86"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="47"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="84"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="86"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
     </row>
     <row r="50" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="9"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2269,40 +2269,40 @@
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="47"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="82" t="s">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="56"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="44"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
     </row>
     <row r="52" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="44"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="47"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
       <c r="D53" s="10"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2316,8 +2316,8 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="47"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="10"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2331,8 +2331,8 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="47"/>
-      <c r="C55" s="48"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="10"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2346,8 +2346,8 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
       <c r="D56" s="10"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2361,8 +2361,8 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="47"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
       <c r="D57" s="10"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2376,8 +2376,8 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
       <c r="D58" s="10"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2391,8 +2391,8 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="47"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="10"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2406,8 +2406,8 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="8"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2421,8 +2421,8 @@
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="47"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
       <c r="D61" s="8"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2436,8 +2436,8 @@
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
       <c r="D62" s="8"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2451,8 +2451,8 @@
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="47"/>
-      <c r="C63" s="48"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
       <c r="D63" s="8"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2466,8 +2466,8 @@
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="23"/>
       <c r="D64" s="8"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -2481,8 +2481,8 @@
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="47"/>
-      <c r="C65" s="48"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="23"/>
       <c r="D65" s="8"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -2496,8 +2496,8 @@
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="23"/>
       <c r="D66" s="8"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2511,8 +2511,8 @@
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="47"/>
-      <c r="C67" s="48"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="8"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -2526,8 +2526,8 @@
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="8"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -2541,8 +2541,8 @@
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="47"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="23"/>
       <c r="D69" s="8"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -2556,8 +2556,8 @@
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="23"/>
       <c r="D70" s="8"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2571,8 +2571,8 @@
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="47"/>
-      <c r="C71" s="48"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="23"/>
       <c r="D71" s="8"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -2586,8 +2586,8 @@
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="23"/>
       <c r="D72" s="8"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2601,8 +2601,8 @@
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="47"/>
-      <c r="C73" s="48"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="23"/>
       <c r="D73" s="8"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2616,8 +2616,8 @@
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
       <c r="D74" s="8"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2631,8 +2631,8 @@
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="47"/>
-      <c r="C75" s="48"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
       <c r="D75" s="8"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -2646,8 +2646,8 @@
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="47"/>
-      <c r="C76" s="48"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
       <c r="D76" s="8"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2661,8 +2661,8 @@
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="47"/>
-      <c r="C77" s="48"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
       <c r="D77" s="8"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -2676,8 +2676,8 @@
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="47"/>
-      <c r="C78" s="48"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
       <c r="D78" s="8"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -2691,8 +2691,8 @@
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="47"/>
-      <c r="C79" s="48"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
       <c r="D79" s="8"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -2706,8 +2706,8 @@
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="47"/>
-      <c r="C80" s="48"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
       <c r="D80" s="9"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -2721,38 +2721,38 @@
       <c r="N80" s="5"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="47"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="44"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="19"/>
     </row>
     <row r="82" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="47"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="58"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="44"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="19"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="47"/>
-      <c r="C83" s="48"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2766,8 +2766,8 @@
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="47"/>
-      <c r="C84" s="48"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2781,8 +2781,8 @@
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="47"/>
-      <c r="C85" s="48"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2796,8 +2796,8 @@
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="47"/>
-      <c r="C86" s="48"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2811,8 +2811,8 @@
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2826,8 +2826,8 @@
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B88" s="47"/>
-      <c r="C88" s="48"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6"/>
       <c r="F88" s="1"/>
@@ -2841,8 +2841,8 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" s="47"/>
-      <c r="C89" s="48"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2856,8 +2856,8 @@
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" s="47"/>
-      <c r="C90" s="48"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2871,8 +2871,8 @@
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B91" s="47"/>
-      <c r="C91" s="48"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2886,8 +2886,8 @@
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B92" s="47"/>
-      <c r="C92" s="48"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2901,8 +2901,8 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B93" s="47"/>
-      <c r="C93" s="48"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -2916,8 +2916,8 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B94" s="47"/>
-      <c r="C94" s="48"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2931,8 +2931,8 @@
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="49"/>
-      <c r="C95" s="50"/>
+      <c r="B95" s="24"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -2946,310 +2946,310 @@
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B96" s="45" t="s">
+      <c r="B96" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="46"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="40"/>
-      <c r="F96" s="40"/>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="40"/>
-      <c r="N96" s="41"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="16"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B97" s="47"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="42"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="44"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="19"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B98" s="47"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="42"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="44"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="19"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B99" s="47"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="42"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="44"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="19"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B100" s="47"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="42"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43"/>
-      <c r="L100" s="43"/>
-      <c r="M100" s="43"/>
-      <c r="N100" s="44"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="19"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B101" s="47"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="42"/>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="43"/>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43"/>
-      <c r="L101" s="43"/>
-      <c r="M101" s="43"/>
-      <c r="N101" s="44"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="19"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B102" s="47"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="42"/>
-      <c r="E102" s="43"/>
-      <c r="F102" s="43"/>
-      <c r="G102" s="43"/>
-      <c r="H102" s="43"/>
-      <c r="I102" s="43"/>
-      <c r="J102" s="43"/>
-      <c r="K102" s="43"/>
-      <c r="L102" s="43"/>
-      <c r="M102" s="43"/>
-      <c r="N102" s="44"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="19"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B103" s="47"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="42"/>
-      <c r="E103" s="43"/>
-      <c r="F103" s="43"/>
-      <c r="G103" s="43"/>
-      <c r="H103" s="43"/>
-      <c r="I103" s="43"/>
-      <c r="J103" s="43"/>
-      <c r="K103" s="43"/>
-      <c r="L103" s="43"/>
-      <c r="M103" s="43"/>
-      <c r="N103" s="44"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="19"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B104" s="47"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="42"/>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="43"/>
-      <c r="J104" s="43"/>
-      <c r="K104" s="43"/>
-      <c r="L104" s="43"/>
-      <c r="M104" s="43"/>
-      <c r="N104" s="44"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="19"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B105" s="47"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="42"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
-      <c r="K105" s="43"/>
-      <c r="L105" s="43"/>
-      <c r="M105" s="43"/>
-      <c r="N105" s="44"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="19"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B106" s="47"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="42"/>
-      <c r="E106" s="43"/>
-      <c r="F106" s="43"/>
-      <c r="G106" s="43"/>
-      <c r="H106" s="43"/>
-      <c r="I106" s="43"/>
-      <c r="J106" s="43"/>
-      <c r="K106" s="43"/>
-      <c r="L106" s="43"/>
-      <c r="M106" s="43"/>
-      <c r="N106" s="44"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="23"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="19"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="47"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="42"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="43"/>
-      <c r="G107" s="43"/>
-      <c r="H107" s="43"/>
-      <c r="I107" s="43"/>
-      <c r="J107" s="43"/>
-      <c r="K107" s="43"/>
-      <c r="L107" s="43"/>
-      <c r="M107" s="43"/>
-      <c r="N107" s="44"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="19"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B108" s="47"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="42"/>
-      <c r="E108" s="43"/>
-      <c r="F108" s="43"/>
-      <c r="G108" s="43"/>
-      <c r="H108" s="43"/>
-      <c r="I108" s="43"/>
-      <c r="J108" s="43"/>
-      <c r="K108" s="43"/>
-      <c r="L108" s="43"/>
-      <c r="M108" s="43"/>
-      <c r="N108" s="44"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="19"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B109" s="47"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="42"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="43"/>
-      <c r="H109" s="43"/>
-      <c r="I109" s="43"/>
-      <c r="J109" s="43"/>
-      <c r="K109" s="43"/>
-      <c r="L109" s="43"/>
-      <c r="M109" s="43"/>
-      <c r="N109" s="44"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="19"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B110" s="47"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="42"/>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="43"/>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="44"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="23"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="19"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B111" s="47"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="42"/>
-      <c r="E111" s="43"/>
-      <c r="F111" s="43"/>
-      <c r="G111" s="43"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="43"/>
-      <c r="J111" s="43"/>
-      <c r="K111" s="43"/>
-      <c r="L111" s="43"/>
-      <c r="M111" s="43"/>
-      <c r="N111" s="44"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="19"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B112" s="47"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="42"/>
-      <c r="E112" s="43"/>
-      <c r="F112" s="43"/>
-      <c r="G112" s="43"/>
-      <c r="H112" s="43"/>
-      <c r="I112" s="43"/>
-      <c r="J112" s="43"/>
-      <c r="K112" s="43"/>
-      <c r="L112" s="43"/>
-      <c r="M112" s="43"/>
-      <c r="N112" s="44"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="19"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B113" s="47"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="42"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
-      <c r="K113" s="43"/>
-      <c r="L113" s="43"/>
-      <c r="M113" s="43"/>
-      <c r="N113" s="44"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="19"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B114" s="47"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="42"/>
-      <c r="E114" s="43"/>
-      <c r="F114" s="43"/>
-      <c r="G114" s="43"/>
-      <c r="H114" s="43"/>
-      <c r="I114" s="43"/>
-      <c r="J114" s="43"/>
-      <c r="K114" s="43"/>
-      <c r="L114" s="43"/>
-      <c r="M114" s="43"/>
-      <c r="N114" s="44"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="19"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B115" s="47"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="42"/>
-      <c r="E115" s="43"/>
-      <c r="F115" s="43"/>
-      <c r="G115" s="43"/>
-      <c r="H115" s="43"/>
-      <c r="I115" s="43"/>
-      <c r="J115" s="43"/>
-      <c r="K115" s="43"/>
-      <c r="L115" s="43"/>
-      <c r="M115" s="43"/>
-      <c r="N115" s="44"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="19"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B116" s="47"/>
-      <c r="C116" s="48"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="23"/>
       <c r="D116" s="8"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -3263,8 +3263,8 @@
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="47"/>
-      <c r="C117" s="48"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
       <c r="D117" s="9"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3278,54 +3278,80 @@
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B118" s="47"/>
-      <c r="C118" s="48"/>
-      <c r="D118" s="51" t="s">
+      <c r="B118" s="22"/>
+      <c r="C118" s="23"/>
+      <c r="D118" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="40"/>
-      <c r="F118" s="40"/>
-      <c r="G118" s="40"/>
-      <c r="H118" s="40"/>
-      <c r="I118" s="40"/>
-      <c r="J118" s="40"/>
-      <c r="K118" s="40"/>
-      <c r="L118" s="40"/>
-      <c r="M118" s="40"/>
-      <c r="N118" s="41"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="16"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B119" s="47"/>
-      <c r="C119" s="48"/>
-      <c r="D119" s="42"/>
-      <c r="E119" s="43"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="43"/>
-      <c r="H119" s="43"/>
-      <c r="I119" s="43"/>
-      <c r="J119" s="43"/>
-      <c r="K119" s="43"/>
-      <c r="L119" s="43"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="44"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="19"/>
     </row>
     <row r="120" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="49"/>
-      <c r="C120" s="50"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="53"/>
-      <c r="H120" s="53"/>
-      <c r="I120" s="53"/>
-      <c r="J120" s="53"/>
-      <c r="K120" s="53"/>
-      <c r="L120" s="53"/>
-      <c r="M120" s="53"/>
-      <c r="N120" s="54"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="27"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="E12:N13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B10:C19"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+    <mergeCell ref="B5:C9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:N11"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B20:C25"/>
+    <mergeCell ref="E14:N15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:N19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:N23"/>
+    <mergeCell ref="E24:N25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="D96:N115"/>
     <mergeCell ref="B96:C120"/>
     <mergeCell ref="D118:N120"/>
@@ -3339,32 +3365,6 @@
     <mergeCell ref="D26:N26"/>
     <mergeCell ref="D27:N27"/>
     <mergeCell ref="D28:N28"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:N21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:N23"/>
-    <mergeCell ref="E24:N25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B20:C25"/>
-    <mergeCell ref="E14:N15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:N19"/>
-    <mergeCell ref="E12:N13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B10:C19"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="D5:N5"/>
-    <mergeCell ref="D8:N8"/>
-    <mergeCell ref="D9:N9"/>
-    <mergeCell ref="B5:C9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:N11"/>
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="D6:N6"/>
-    <mergeCell ref="B4:N4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3375,10 +3375,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270D630F-D0BC-4E73-9617-64E00DDE1EAA}">
-  <dimension ref="A3:A4"/>
+  <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3386,9 +3386,152 @@
     <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="67"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="73"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="85"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="82"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="76"/>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="79"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:C9"/>
+    <mergeCell ref="D5:N5"/>
+    <mergeCell ref="D6:N6"/>
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="D8:N8"/>
+    <mergeCell ref="D9:N9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/문서/20210123_서정우_스테이지 2 보스 클레아.xlsx
+++ b/문서/20210123_서정우_스테이지 2 보스 클레아.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seo\Documents\GitHub\4Team_UnityProject\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FB176F-51AB-4760-9DFA-C04DF4998485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91538E27-1320-4FDD-8EFF-0C0C479162AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27210" windowHeight="14130" activeTab="1" xr2:uid="{D645BB3A-1329-4EC4-B371-F0E4BFB710C2}"/>
+    <workbookView xWindow="-24120" yWindow="5295" windowWidth="24240" windowHeight="13140" xr2:uid="{D645BB3A-1329-4EC4-B371-F0E4BFB710C2}"/>
   </bookViews>
   <sheets>
     <sheet name="컨셉" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,11 +55,6 @@
   <si>
     <t>예상 맵구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물의 위치 : 해당 폼이 되었을때 첫 공격의 시작 위치
-가운데의 큐브 : 이프의 약점
-큐브 아래의 선 : 약점이 상,하로 계속 움직임</t>
   </si>
   <si>
     <t>ㄴ</t>
@@ -733,6 +728,138 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,138 +945,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F08A8C-BF5F-431B-BDDF-FFB3D7EC963C}">
   <dimension ref="B1:Q120"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118:N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1470,506 +1465,506 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-    </row>
-    <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
-    </row>
-    <row r="4" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="71" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-    </row>
-    <row r="6" spans="2:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="83" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
-    </row>
-    <row r="7" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="80" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="74" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="77" t="s">
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="62" t="s">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="17">
+        <v>3</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="16"/>
+      <c r="Q15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="17">
+        <v>4</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="16"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="17">
+        <v>5</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
+    </row>
+    <row r="19" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="54"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="39">
         <v>1</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="45">
-        <v>1</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="48"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="46">
+      <c r="E20" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="16"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="17">
         <v>2</v>
       </c>
-      <c r="E12" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="44"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="54"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="54"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="46">
+      <c r="E22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="16"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="17">
         <v>3</v>
       </c>
-      <c r="E14" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="44"/>
-      <c r="Q15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="46">
+      <c r="E24" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="16"/>
+    </row>
+    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="56"/>
+    </row>
+    <row r="26" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="65"/>
+      <c r="D26" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="82"/>
+    </row>
+    <row r="27" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="85"/>
+    </row>
+    <row r="28" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="46">
-        <v>5</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="44"/>
-    </row>
-    <row r="19" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="61"/>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="45">
-        <v>1</v>
-      </c>
-      <c r="E20" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="48"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="44"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="46">
-        <v>2</v>
-      </c>
-      <c r="E22" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="44"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="44"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="54"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="46">
-        <v>3</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="44"/>
-    </row>
-    <row r="25" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="50"/>
-    </row>
-    <row r="26" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
-    </row>
-    <row r="27" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="39" t="s">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16"/>
+    </row>
+    <row r="29" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="41"/>
-    </row>
-    <row r="28" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="44"/>
-    </row>
-    <row r="29" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="19"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
     </row>
     <row r="30" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="19"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
     </row>
     <row r="31" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="22"/>
-      <c r="C31" s="23"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
       <c r="D31" s="10"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1983,8 +1978,8 @@
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
       <c r="D32" s="10"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1998,8 +1993,8 @@
       <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="22"/>
-      <c r="C33" s="23"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
       <c r="D33" s="10"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2013,8 +2008,8 @@
       <c r="N33" s="2"/>
     </row>
     <row r="34" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="22"/>
-      <c r="C34" s="23"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
       <c r="D34" s="10"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2028,8 +2023,8 @@
       <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="22"/>
-      <c r="C35" s="23"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
       <c r="D35" s="10"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2043,8 +2038,8 @@
       <c r="N35" s="2"/>
     </row>
     <row r="36" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="22"/>
-      <c r="C36" s="23"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
       <c r="D36" s="10"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2058,8 +2053,8 @@
       <c r="N36" s="2"/>
     </row>
     <row r="37" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
       <c r="D37" s="10"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2073,8 +2068,8 @@
       <c r="N37" s="2"/>
     </row>
     <row r="38" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="22"/>
-      <c r="C38" s="23"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
       <c r="D38" s="10"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2088,8 +2083,8 @@
       <c r="N38" s="2"/>
     </row>
     <row r="39" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2103,8 +2098,8 @@
       <c r="N39" s="2"/>
     </row>
     <row r="40" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="22"/>
-      <c r="C40" s="23"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
       <c r="D40" s="10"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2118,8 +2113,8 @@
       <c r="N40" s="2"/>
     </row>
     <row r="41" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="22"/>
-      <c r="C41" s="23"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="10"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2133,8 +2128,8 @@
       <c r="N41" s="2"/>
     </row>
     <row r="42" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="22"/>
-      <c r="C42" s="23"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
       <c r="D42" s="11"/>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -2148,8 +2143,8 @@
       <c r="N42" s="13"/>
     </row>
     <row r="43" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -2163,8 +2158,8 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="22"/>
-      <c r="C44" s="23"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="11"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -2178,8 +2173,8 @@
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="22"/>
-      <c r="C45" s="23"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
       <c r="D45" s="11"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -2193,8 +2188,8 @@
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
       <c r="D46" s="11"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -2208,8 +2203,8 @@
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
-      <c r="C47" s="23"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="11"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -2222,11 +2217,11 @@
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
       <c r="D48" s="11"/>
       <c r="E48" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -2239,8 +2234,8 @@
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="22"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
       <c r="D49" s="11"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -2254,8 +2249,8 @@
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="9"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2269,40 +2264,40 @@
       <c r="N50" s="5"/>
     </row>
     <row r="51" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="75"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
+      <c r="N51" s="63"/>
     </row>
     <row r="52" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="22"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="63"/>
     </row>
     <row r="53" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="22"/>
-      <c r="C53" s="23"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
       <c r="D53" s="10"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2316,8 +2311,8 @@
       <c r="N53" s="2"/>
     </row>
     <row r="54" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="22"/>
-      <c r="C54" s="23"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
       <c r="D54" s="10"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2331,8 +2326,8 @@
       <c r="N54" s="2"/>
     </row>
     <row r="55" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="10"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2346,8 +2341,8 @@
       <c r="N55" s="2"/>
     </row>
     <row r="56" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="22"/>
-      <c r="C56" s="23"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="10"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2361,8 +2356,8 @@
       <c r="N56" s="2"/>
     </row>
     <row r="57" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="22"/>
-      <c r="C57" s="23"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="10"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2376,8 +2371,8 @@
       <c r="N57" s="2"/>
     </row>
     <row r="58" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
       <c r="D58" s="10"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2391,8 +2386,8 @@
       <c r="N58" s="2"/>
     </row>
     <row r="59" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
       <c r="D59" s="10"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2406,8 +2401,8 @@
       <c r="N59" s="2"/>
     </row>
     <row r="60" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
       <c r="D60" s="8"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -2421,8 +2416,8 @@
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="8"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -2436,8 +2431,8 @@
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="8"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -2451,8 +2446,8 @@
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="8"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -2466,8 +2461,8 @@
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="67"/>
       <c r="D64" s="8"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -2481,8 +2476,8 @@
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="22"/>
-      <c r="C65" s="23"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
       <c r="D65" s="8"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -2496,8 +2491,8 @@
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="67"/>
       <c r="D66" s="8"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -2511,8 +2506,8 @@
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="22"/>
-      <c r="C67" s="23"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
       <c r="D67" s="8"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -2526,8 +2521,8 @@
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="22"/>
-      <c r="C68" s="23"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
       <c r="D68" s="8"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -2541,8 +2536,8 @@
       <c r="N68" s="7"/>
     </row>
     <row r="69" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="22"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
       <c r="D69" s="8"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -2556,8 +2551,8 @@
       <c r="N69" s="7"/>
     </row>
     <row r="70" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="22"/>
-      <c r="C70" s="23"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="67"/>
       <c r="D70" s="8"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -2571,8 +2566,8 @@
       <c r="N70" s="7"/>
     </row>
     <row r="71" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="22"/>
-      <c r="C71" s="23"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="67"/>
       <c r="D71" s="8"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -2586,8 +2581,8 @@
       <c r="N71" s="7"/>
     </row>
     <row r="72" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="22"/>
-      <c r="C72" s="23"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="8"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -2601,8 +2596,8 @@
       <c r="N72" s="7"/>
     </row>
     <row r="73" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="22"/>
-      <c r="C73" s="23"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="8"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -2616,8 +2611,8 @@
       <c r="N73" s="7"/>
     </row>
     <row r="74" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
       <c r="D74" s="8"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -2631,8 +2626,8 @@
       <c r="N74" s="7"/>
     </row>
     <row r="75" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="67"/>
       <c r="D75" s="8"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -2646,8 +2641,8 @@
       <c r="N75" s="7"/>
     </row>
     <row r="76" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="67"/>
       <c r="D76" s="8"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -2661,8 +2656,8 @@
       <c r="N76" s="7"/>
     </row>
     <row r="77" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="67"/>
       <c r="D77" s="8"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -2676,8 +2671,8 @@
       <c r="N77" s="7"/>
     </row>
     <row r="78" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="67"/>
       <c r="D78" s="8"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -2691,8 +2686,8 @@
       <c r="N78" s="7"/>
     </row>
     <row r="79" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="67"/>
       <c r="D79" s="8"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -2706,8 +2701,8 @@
       <c r="N79" s="7"/>
     </row>
     <row r="80" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="67"/>
       <c r="D80" s="9"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -2721,38 +2716,38 @@
       <c r="N80" s="5"/>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="19"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="78"/>
+      <c r="E81" s="75"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="62"/>
+      <c r="H81" s="62"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="62"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
+      <c r="N81" s="63"/>
     </row>
     <row r="82" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="19"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="62"/>
+      <c r="H82" s="62"/>
+      <c r="I82" s="62"/>
+      <c r="J82" s="62"/>
+      <c r="K82" s="62"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
+      <c r="N82" s="63"/>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2766,8 +2761,8 @@
       <c r="N83" s="2"/>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="67"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2781,8 +2776,8 @@
       <c r="N84" s="2"/>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="67"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2796,8 +2791,8 @@
       <c r="N85" s="2"/>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="67"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2811,8 +2806,8 @@
       <c r="N86" s="2"/>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="67"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2826,8 +2821,8 @@
       <c r="N87" s="7"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="67"/>
       <c r="D88" s="1"/>
       <c r="E88" s="6"/>
       <c r="F88" s="1"/>
@@ -2841,8 +2836,8 @@
       <c r="N88" s="2"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="67"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -2856,8 +2851,8 @@
       <c r="N89" s="2"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="67"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -2871,8 +2866,8 @@
       <c r="N90" s="2"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="67"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -2886,8 +2881,8 @@
       <c r="N91" s="2"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="67"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -2901,8 +2896,8 @@
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -2916,8 +2911,8 @@
       <c r="N93" s="2"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="67"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -2931,8 +2926,8 @@
       <c r="N94" s="2"/>
     </row>
     <row r="95" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="24"/>
-      <c r="C95" s="25"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -2946,310 +2941,310 @@
       <c r="N95" s="7"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C96" s="21"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="15"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="15"/>
-      <c r="N96" s="16"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="58"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="59"/>
+      <c r="N96" s="60"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="19"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="61"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="62"/>
+      <c r="H97" s="62"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="62"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="62"/>
+      <c r="N97" s="63"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="19"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="61"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="62"/>
+      <c r="H98" s="62"/>
+      <c r="I98" s="62"/>
+      <c r="J98" s="62"/>
+      <c r="K98" s="62"/>
+      <c r="L98" s="62"/>
+      <c r="M98" s="62"/>
+      <c r="N98" s="63"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="19"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="63"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B100" s="22"/>
-      <c r="C100" s="23"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="19"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="61"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="62"/>
+      <c r="H100" s="62"/>
+      <c r="I100" s="62"/>
+      <c r="J100" s="62"/>
+      <c r="K100" s="62"/>
+      <c r="L100" s="62"/>
+      <c r="M100" s="62"/>
+      <c r="N100" s="63"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B101" s="22"/>
-      <c r="C101" s="23"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="19"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="61"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="62"/>
+      <c r="H101" s="62"/>
+      <c r="I101" s="62"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="62"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="62"/>
+      <c r="N101" s="63"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B102" s="22"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="19"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="61"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="62"/>
+      <c r="H102" s="62"/>
+      <c r="I102" s="62"/>
+      <c r="J102" s="62"/>
+      <c r="K102" s="62"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
+      <c r="N102" s="63"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B103" s="22"/>
-      <c r="C103" s="23"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="19"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="61"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="62"/>
+      <c r="H103" s="62"/>
+      <c r="I103" s="62"/>
+      <c r="J103" s="62"/>
+      <c r="K103" s="62"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
+      <c r="N103" s="63"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B104" s="22"/>
-      <c r="C104" s="23"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="19"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="62"/>
+      <c r="H104" s="62"/>
+      <c r="I104" s="62"/>
+      <c r="J104" s="62"/>
+      <c r="K104" s="62"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="62"/>
+      <c r="N104" s="63"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B105" s="22"/>
-      <c r="C105" s="23"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="19"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="62"/>
+      <c r="H105" s="62"/>
+      <c r="I105" s="62"/>
+      <c r="J105" s="62"/>
+      <c r="K105" s="62"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="63"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B106" s="22"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="18"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="19"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="61"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="62"/>
+      <c r="H106" s="62"/>
+      <c r="I106" s="62"/>
+      <c r="J106" s="62"/>
+      <c r="K106" s="62"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="63"/>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B107" s="22"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="19"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="61"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="62"/>
+      <c r="H107" s="62"/>
+      <c r="I107" s="62"/>
+      <c r="J107" s="62"/>
+      <c r="K107" s="62"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="63"/>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B108" s="22"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="19"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="62"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="62"/>
+      <c r="J108" s="62"/>
+      <c r="K108" s="62"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="63"/>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="19"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="61"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="62"/>
+      <c r="H109" s="62"/>
+      <c r="I109" s="62"/>
+      <c r="J109" s="62"/>
+      <c r="K109" s="62"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="62"/>
+      <c r="N109" s="63"/>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B110" s="22"/>
-      <c r="C110" s="23"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="19"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="61"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="62"/>
+      <c r="K110" s="62"/>
+      <c r="L110" s="62"/>
+      <c r="M110" s="62"/>
+      <c r="N110" s="63"/>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B111" s="22"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="19"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="61"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="62"/>
+      <c r="H111" s="62"/>
+      <c r="I111" s="62"/>
+      <c r="J111" s="62"/>
+      <c r="K111" s="62"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="62"/>
+      <c r="N111" s="63"/>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B112" s="22"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="18"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="19"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="62"/>
+      <c r="H112" s="62"/>
+      <c r="I112" s="62"/>
+      <c r="J112" s="62"/>
+      <c r="K112" s="62"/>
+      <c r="L112" s="62"/>
+      <c r="M112" s="62"/>
+      <c r="N112" s="63"/>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B113" s="22"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="19"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="61"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="62"/>
+      <c r="H113" s="62"/>
+      <c r="I113" s="62"/>
+      <c r="J113" s="62"/>
+      <c r="K113" s="62"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
+      <c r="N113" s="63"/>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B114" s="22"/>
-      <c r="C114" s="23"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="19"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="61"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="62"/>
+      <c r="H114" s="62"/>
+      <c r="I114" s="62"/>
+      <c r="J114" s="62"/>
+      <c r="K114" s="62"/>
+      <c r="L114" s="62"/>
+      <c r="M114" s="62"/>
+      <c r="N114" s="63"/>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B115" s="22"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="19"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="61"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="62"/>
+      <c r="H115" s="62"/>
+      <c r="I115" s="62"/>
+      <c r="J115" s="62"/>
+      <c r="K115" s="62"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
+      <c r="N115" s="63"/>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B116" s="22"/>
-      <c r="C116" s="23"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="67"/>
       <c r="D116" s="8"/>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -3263,8 +3258,8 @@
       <c r="N116" s="7"/>
     </row>
     <row r="117" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="22"/>
-      <c r="C117" s="23"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="67"/>
       <c r="D117" s="9"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -3278,54 +3273,78 @@
       <c r="N117" s="5"/>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B118" s="22"/>
-      <c r="C118" s="23"/>
-      <c r="D118" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="16"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="59"/>
+      <c r="F118" s="59"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="59"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="59"/>
+      <c r="K118" s="59"/>
+      <c r="L118" s="59"/>
+      <c r="M118" s="59"/>
+      <c r="N118" s="60"/>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B119" s="22"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="19"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="61"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="62"/>
+      <c r="H119" s="62"/>
+      <c r="I119" s="62"/>
+      <c r="J119" s="62"/>
+      <c r="K119" s="62"/>
+      <c r="L119" s="62"/>
+      <c r="M119" s="62"/>
+      <c r="N119" s="63"/>
     </row>
     <row r="120" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="24"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
-      <c r="M120" s="28"/>
-      <c r="N120" s="29"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="72"/>
+      <c r="F120" s="72"/>
+      <c r="G120" s="72"/>
+      <c r="H120" s="72"/>
+      <c r="I120" s="72"/>
+      <c r="J120" s="72"/>
+      <c r="K120" s="72"/>
+      <c r="L120" s="72"/>
+      <c r="M120" s="72"/>
+      <c r="N120" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="D96:N115"/>
+    <mergeCell ref="B96:C120"/>
+    <mergeCell ref="D118:N120"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:N52"/>
+    <mergeCell ref="D81:E82"/>
+    <mergeCell ref="F81:N82"/>
+    <mergeCell ref="B26:C95"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:N30"/>
+    <mergeCell ref="D26:N26"/>
+    <mergeCell ref="D27:N27"/>
+    <mergeCell ref="D28:N28"/>
+    <mergeCell ref="B20:C25"/>
+    <mergeCell ref="E14:N15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E16:N17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:N19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:N21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:N23"/>
+    <mergeCell ref="E24:N25"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="E12:N13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B10:C19"/>
@@ -3339,32 +3358,6 @@
     <mergeCell ref="D7:N7"/>
     <mergeCell ref="D6:N6"/>
     <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B20:C25"/>
-    <mergeCell ref="E14:N15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E16:N17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:N19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:N21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:N23"/>
-    <mergeCell ref="E24:N25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D96:N115"/>
-    <mergeCell ref="B96:C120"/>
-    <mergeCell ref="D118:N120"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:N52"/>
-    <mergeCell ref="D81:E82"/>
-    <mergeCell ref="F81:N82"/>
-    <mergeCell ref="B26:C95"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="F29:N30"/>
-    <mergeCell ref="D26:N26"/>
-    <mergeCell ref="D27:N27"/>
-    <mergeCell ref="D28:N28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3377,7 +3370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270D630F-D0BC-4E73-9617-64E00DDE1EAA}">
   <dimension ref="B1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -3388,138 +3381,138 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="67"/>
-    </row>
-    <row r="3" spans="2:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="70"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="71" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="73"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="83" t="s">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="47"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="85"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="80" t="s">
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="44"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="82"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="74" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+    </row>
+    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="76"/>
-    </row>
-    <row r="9" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="78"/>
-      <c r="N9" s="79"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="8">
